--- a/Next State Table.xlsx
+++ b/Next State Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neilr\Desktop\Project_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4FF635-8CAA-4C81-BB6A-95DC7306E46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79C95D2-CEFA-4F4A-AD31-D18544FF6755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2B082B8A-6F23-42B4-86A6-F5AB09BE1258}"/>
+    <workbookView xWindow="-28920" yWindow="2790" windowWidth="29040" windowHeight="15840" xr2:uid="{2B082B8A-6F23-42B4-86A6-F5AB09BE1258}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="29">
   <si>
     <t>State</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Next State</t>
   </si>
   <si>
-    <t>Encoded Input</t>
-  </si>
-  <si>
     <t>0 0</t>
   </si>
   <si>
@@ -115,6 +112,18 @@
   <si>
     <t>Change Output</t>
   </si>
+  <si>
+    <t>Whole-D</t>
+  </si>
+  <si>
+    <t>Half-D</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>X Y (enc)</t>
+  </si>
 </sst>
 </file>
 
@@ -137,12 +146,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -166,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -187,6 +214,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E21DA4-2E62-490B-97AE-94EFC966CE6B}">
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:U60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,28 +580,28 @@
         <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="O1" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>0</v>
@@ -577,87 +616,91 @@
         <v>9</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="P2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>0</v>
-      </c>
-      <c r="R2" s="4">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>2</v>
       </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
       <c r="P3" s="4" t="s">
         <v>2</v>
       </c>
@@ -675,36 +718,38 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="A4" s="8">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>3</v>
       </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
       <c r="P4" s="4" t="s">
         <v>3</v>
       </c>
@@ -722,36 +767,38 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="A5" s="8">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
       <c r="P5" s="4" t="s">
         <v>4</v>
       </c>
@@ -785,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -832,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -879,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -926,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
@@ -942,38 +989,40 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="8">
         <v>0.5</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4" t="s">
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>3</v>
       </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
       <c r="O10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>0</v>
@@ -988,87 +1037,91 @@
         <v>9</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="8">
         <v>0.5</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="P11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4">
-        <v>1</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>0</v>
-      </c>
-      <c r="R11" s="4">
-        <v>0</v>
-      </c>
-      <c r="S11" s="4">
-        <v>0</v>
-      </c>
-      <c r="T11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4" t="s">
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
       <c r="P12" s="4" t="s">
         <v>2</v>
       </c>
@@ -1086,36 +1139,38 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="8">
         <v>0.5</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1</v>
-      </c>
-      <c r="J13" s="4" t="s">
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>7</v>
       </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
       <c r="P13" s="4" t="s">
         <v>3</v>
       </c>
@@ -1149,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
@@ -1202,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
@@ -1255,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
@@ -1308,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" s="4">
         <v>0</v>
@@ -1345,154 +1400,154 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="8">
+        <v>1</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="9">
+        <v>1</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>1</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" s="4">
-        <v>1</v>
-      </c>
-      <c r="L18" s="4" t="s">
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="9">
+        <v>1</v>
+      </c>
+      <c r="L19" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>1</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K19" s="4">
-        <v>1</v>
-      </c>
-      <c r="L19" s="4" t="s">
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="9">
+        <v>1</v>
+      </c>
+      <c r="L20" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>1</v>
-      </c>
-      <c r="B20" s="4" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>1</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="C21" s="9">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="4">
-        <v>1</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>1</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K21" s="4">
-        <v>1</v>
-      </c>
-      <c r="L21" s="4" t="s">
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="9">
+        <v>1</v>
+      </c>
+      <c r="L21" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1513,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" s="4">
         <v>0</v>
@@ -1551,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" s="4">
         <v>0</v>
@@ -1589,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G24" s="4">
         <v>0</v>
@@ -1627,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G25" s="4">
         <v>0</v>
@@ -1649,154 +1704,1382 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="8">
         <v>1.5</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="4">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4">
-        <v>1</v>
-      </c>
-      <c r="E26" s="4">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="C26" s="9">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="9">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="4">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0</v>
-      </c>
-      <c r="I26" s="4">
-        <v>0</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K26" s="4">
-        <v>1</v>
-      </c>
-      <c r="L26" s="4" t="s">
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="9">
+        <v>1</v>
+      </c>
+      <c r="L27" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
         <v>1.5</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="4">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1</v>
-      </c>
-      <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="C28" s="9">
+        <v>1</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1</v>
+      </c>
+      <c r="E28" s="9">
+        <v>1</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="4">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0</v>
-      </c>
-      <c r="I27" s="4">
-        <v>0</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K27" s="4">
-        <v>1</v>
-      </c>
-      <c r="L27" s="4" t="s">
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="9">
+        <v>1</v>
+      </c>
+      <c r="L28" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
         <v>1.5</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B29" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="4">
-        <v>1</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1</v>
-      </c>
-      <c r="E28" s="4">
-        <v>1</v>
-      </c>
-      <c r="F28" s="4" t="s">
+      <c r="C29" s="9">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9">
+        <v>1</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="4">
-        <v>0</v>
-      </c>
-      <c r="H28" s="4">
-        <v>0</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K28" s="4">
-        <v>1</v>
-      </c>
-      <c r="L28" s="4" t="s">
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="9">
+        <v>1</v>
+      </c>
+      <c r="L29" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>0</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="9">
+        <v>0</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0</v>
+      </c>
+      <c r="G33" s="10">
+        <v>0</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0</v>
+      </c>
+      <c r="I33" s="9">
+        <v>0</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>0</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="9">
+        <v>0</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0</v>
+      </c>
+      <c r="H34" s="10">
+        <v>1</v>
+      </c>
+      <c r="I34" s="9">
+        <v>0</v>
+      </c>
+      <c r="J34" s="9">
+        <v>0</v>
+      </c>
+      <c r="K34" s="9">
+        <v>1</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>0</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="9">
+        <v>0</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0</v>
+      </c>
+      <c r="F35" s="10">
+        <v>0</v>
+      </c>
+      <c r="G35" s="10">
+        <v>1</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0</v>
+      </c>
+      <c r="I35" s="9">
+        <v>0</v>
+      </c>
+      <c r="J35" s="9">
+        <v>1</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>0</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="9">
+        <v>0</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0</v>
+      </c>
+      <c r="F36" s="10">
+        <v>1</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0</v>
+      </c>
+      <c r="I36" s="9">
+        <v>1</v>
+      </c>
+      <c r="J36" s="9">
+        <v>0</v>
+      </c>
+      <c r="K36" s="9">
+        <v>1</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0</v>
+      </c>
+      <c r="G37" s="11">
+        <v>0</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>1</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="11">
+        <v>0</v>
+      </c>
+      <c r="G39" s="11">
+        <v>1</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0</v>
+      </c>
+      <c r="J39" s="4">
+        <v>1</v>
+      </c>
+      <c r="K39" s="4">
+        <v>1</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="11">
+        <v>1</v>
+      </c>
+      <c r="G40" s="11">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <v>1</v>
+      </c>
+      <c r="J40" s="4">
+        <v>1</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="9">
+        <v>0</v>
+      </c>
+      <c r="D41" s="9">
+        <v>1</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0</v>
+      </c>
+      <c r="F41" s="10">
+        <v>0</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0</v>
+      </c>
+      <c r="H41" s="10">
+        <v>0</v>
+      </c>
+      <c r="I41" s="9">
+        <v>0</v>
+      </c>
+      <c r="J41" s="9">
+        <v>1</v>
+      </c>
+      <c r="K41" s="9">
+        <v>0</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="9">
+        <v>0</v>
+      </c>
+      <c r="D42" s="9">
+        <v>1</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0</v>
+      </c>
+      <c r="F42" s="10">
+        <v>0</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0</v>
+      </c>
+      <c r="H42" s="10">
+        <v>1</v>
+      </c>
+      <c r="I42" s="9">
+        <v>0</v>
+      </c>
+      <c r="J42" s="9">
+        <v>1</v>
+      </c>
+      <c r="K42" s="9">
+        <v>1</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="9">
+        <v>0</v>
+      </c>
+      <c r="D43" s="9">
+        <v>1</v>
+      </c>
+      <c r="E43" s="9">
+        <v>0</v>
+      </c>
+      <c r="F43" s="10">
+        <v>0</v>
+      </c>
+      <c r="G43" s="10">
+        <v>1</v>
+      </c>
+      <c r="H43" s="10">
+        <v>0</v>
+      </c>
+      <c r="I43" s="9">
+        <v>1</v>
+      </c>
+      <c r="J43" s="9">
+        <v>0</v>
+      </c>
+      <c r="K43" s="9">
+        <v>1</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="9">
+        <v>0</v>
+      </c>
+      <c r="D44" s="9">
+        <v>1</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0</v>
+      </c>
+      <c r="F44" s="10">
+        <v>1</v>
+      </c>
+      <c r="G44" s="10">
+        <v>0</v>
+      </c>
+      <c r="H44" s="10">
+        <v>0</v>
+      </c>
+      <c r="I44" s="9">
+        <v>1</v>
+      </c>
+      <c r="J44" s="9">
+        <v>1</v>
+      </c>
+      <c r="K44" s="9">
+        <v>1</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="11">
+        <v>0</v>
+      </c>
+      <c r="G45" s="11">
+        <v>0</v>
+      </c>
+      <c r="H45" s="11">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M45" s="4">
+        <v>1</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="11">
+        <v>0</v>
+      </c>
+      <c r="G46" s="11">
+        <v>0</v>
+      </c>
+      <c r="H46" s="11">
+        <v>1</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M46" s="4">
+        <v>1</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="11">
+        <v>0</v>
+      </c>
+      <c r="G47" s="11">
+        <v>1</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M47" s="4">
+        <v>1</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
+      <c r="F48" s="11">
+        <v>1</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
+        <v>0</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M48" s="4">
+        <v>1</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>1</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="9">
+        <v>1</v>
+      </c>
+      <c r="D49" s="9">
+        <v>0</v>
+      </c>
+      <c r="E49" s="9">
+        <v>1</v>
+      </c>
+      <c r="F49" s="10">
+        <v>0</v>
+      </c>
+      <c r="G49" s="10">
+        <v>0</v>
+      </c>
+      <c r="H49" s="10">
+        <v>0</v>
+      </c>
+      <c r="I49" s="9">
+        <v>0</v>
+      </c>
+      <c r="J49" s="9">
+        <v>0</v>
+      </c>
+      <c r="K49" s="9">
+        <v>0</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M49" s="9">
+        <v>1</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>1</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="9">
+        <v>1</v>
+      </c>
+      <c r="D50" s="9">
+        <v>0</v>
+      </c>
+      <c r="E50" s="9">
+        <v>1</v>
+      </c>
+      <c r="F50" s="10">
+        <v>0</v>
+      </c>
+      <c r="G50" s="10">
+        <v>0</v>
+      </c>
+      <c r="H50" s="10">
+        <v>1</v>
+      </c>
+      <c r="I50" s="9">
+        <v>0</v>
+      </c>
+      <c r="J50" s="9">
+        <v>0</v>
+      </c>
+      <c r="K50" s="9">
+        <v>0</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M50" s="9">
+        <v>1</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>1</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="9">
+        <v>1</v>
+      </c>
+      <c r="D51" s="9">
+        <v>0</v>
+      </c>
+      <c r="E51" s="9">
+        <v>1</v>
+      </c>
+      <c r="F51" s="10">
+        <v>0</v>
+      </c>
+      <c r="G51" s="10">
+        <v>1</v>
+      </c>
+      <c r="H51" s="10">
+        <v>0</v>
+      </c>
+      <c r="I51" s="9">
+        <v>0</v>
+      </c>
+      <c r="J51" s="9">
+        <v>0</v>
+      </c>
+      <c r="K51" s="9">
+        <v>0</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M51" s="9">
+        <v>1</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>1</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="9">
+        <v>1</v>
+      </c>
+      <c r="D52" s="9">
+        <v>0</v>
+      </c>
+      <c r="E52" s="9">
+        <v>1</v>
+      </c>
+      <c r="F52" s="10">
+        <v>1</v>
+      </c>
+      <c r="G52" s="10">
+        <v>0</v>
+      </c>
+      <c r="H52" s="10">
+        <v>0</v>
+      </c>
+      <c r="I52" s="9">
+        <v>0</v>
+      </c>
+      <c r="J52" s="9">
+        <v>0</v>
+      </c>
+      <c r="K52" s="9">
+        <v>0</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M52" s="9">
+        <v>1</v>
+      </c>
+      <c r="N52" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="11">
+        <v>0</v>
+      </c>
+      <c r="G53" s="11">
+        <v>0</v>
+      </c>
+      <c r="H53" s="11">
+        <v>0</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0</v>
+      </c>
+      <c r="J53" s="4">
+        <v>0</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M53" s="4">
+        <v>1</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
+      </c>
+      <c r="G54" s="11">
+        <v>0</v>
+      </c>
+      <c r="H54" s="11">
+        <v>1</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0</v>
+      </c>
+      <c r="J54" s="4">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
+        <v>0</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M54" s="4">
+        <v>1</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="11">
+        <v>0</v>
+      </c>
+      <c r="G55" s="11">
+        <v>1</v>
+      </c>
+      <c r="H55" s="11">
+        <v>0</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0</v>
+      </c>
+      <c r="J55" s="4">
+        <v>0</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M55" s="4">
+        <v>1</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="4">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="11">
+        <v>1</v>
+      </c>
+      <c r="G56" s="11">
+        <v>0</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0</v>
+      </c>
+      <c r="J56" s="4">
+        <v>0</v>
+      </c>
+      <c r="K56" s="4">
+        <v>0</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M56" s="4">
+        <v>1</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
         <v>1.5</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B57" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="4">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="4">
-        <v>0</v>
-      </c>
-      <c r="H29" s="4">
-        <v>0</v>
-      </c>
-      <c r="I29" s="4">
-        <v>0</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K29" s="4">
-        <v>1</v>
-      </c>
-      <c r="L29" s="4" t="s">
+      <c r="C57" s="9">
+        <v>1</v>
+      </c>
+      <c r="D57" s="9">
+        <v>1</v>
+      </c>
+      <c r="E57" s="9">
+        <v>1</v>
+      </c>
+      <c r="F57" s="10">
+        <v>0</v>
+      </c>
+      <c r="G57" s="10">
+        <v>0</v>
+      </c>
+      <c r="H57" s="10">
+        <v>0</v>
+      </c>
+      <c r="I57" s="9">
+        <v>0</v>
+      </c>
+      <c r="J57" s="9">
+        <v>0</v>
+      </c>
+      <c r="K57" s="9">
+        <v>0</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M57" s="9">
+        <v>1</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="9">
+        <v>1</v>
+      </c>
+      <c r="D58" s="9">
+        <v>1</v>
+      </c>
+      <c r="E58" s="9">
+        <v>1</v>
+      </c>
+      <c r="F58" s="10">
+        <v>0</v>
+      </c>
+      <c r="G58" s="10">
+        <v>0</v>
+      </c>
+      <c r="H58" s="10">
+        <v>1</v>
+      </c>
+      <c r="I58" s="9">
+        <v>0</v>
+      </c>
+      <c r="J58" s="9">
+        <v>0</v>
+      </c>
+      <c r="K58" s="9">
+        <v>0</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M58" s="9">
+        <v>1</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="9">
+        <v>1</v>
+      </c>
+      <c r="D59" s="9">
+        <v>1</v>
+      </c>
+      <c r="E59" s="9">
+        <v>1</v>
+      </c>
+      <c r="F59" s="10">
+        <v>0</v>
+      </c>
+      <c r="G59" s="10">
+        <v>1</v>
+      </c>
+      <c r="H59" s="10">
+        <v>0</v>
+      </c>
+      <c r="I59" s="9">
+        <v>0</v>
+      </c>
+      <c r="J59" s="9">
+        <v>0</v>
+      </c>
+      <c r="K59" s="9">
+        <v>0</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M59" s="9">
+        <v>1</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="9">
+        <v>1</v>
+      </c>
+      <c r="D60" s="9">
+        <v>1</v>
+      </c>
+      <c r="E60" s="9">
+        <v>1</v>
+      </c>
+      <c r="F60" s="10">
+        <v>1</v>
+      </c>
+      <c r="G60" s="10">
+        <v>0</v>
+      </c>
+      <c r="H60" s="10">
+        <v>0</v>
+      </c>
+      <c r="I60" s="9">
+        <v>0</v>
+      </c>
+      <c r="J60" s="9">
+        <v>0</v>
+      </c>
+      <c r="K60" s="9">
+        <v>0</v>
+      </c>
+      <c r="L60" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M60" s="9">
+        <v>1</v>
+      </c>
+      <c r="N60" s="9" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Next State Table.xlsx
+++ b/Next State Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neilr\Desktop\Project_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79C95D2-CEFA-4F4A-AD31-D18544FF6755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99354809-3716-4599-981C-068542D45811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2790" windowWidth="29040" windowHeight="15840" xr2:uid="{2B082B8A-6F23-42B4-86A6-F5AB09BE1258}"/>
+    <workbookView xWindow="38280" yWindow="2745" windowWidth="29040" windowHeight="15840" xr2:uid="{2B082B8A-6F23-42B4-86A6-F5AB09BE1258}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -545,7 +545,7 @@
   <dimension ref="A1:U60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>5</v>

--- a/Next State Table.xlsx
+++ b/Next State Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neilr\Desktop\Project_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99354809-3716-4599-981C-068542D45811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718EB85B-B84A-4208-B21F-8B336BB76F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2745" windowWidth="29040" windowHeight="15840" xr2:uid="{2B082B8A-6F23-42B4-86A6-F5AB09BE1258}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2B082B8A-6F23-42B4-86A6-F5AB09BE1258}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="30">
   <si>
     <t>State</t>
   </si>
@@ -124,11 +124,17 @@
   <si>
     <t>X Y (enc)</t>
   </si>
+  <si>
+    <t>Target $</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,7 +152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +174,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -193,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -226,6 +238,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -545,7 +569,7 @@
   <dimension ref="A1:U60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,6 +583,7 @@
     <col min="10" max="10" width="11.140625" style="4" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="4"/>
     <col min="12" max="12" width="13.140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
     <col min="15" max="15" width="14.42578125" style="4" customWidth="1"/>
     <col min="16" max="21" width="9.140625" style="4"/>
   </cols>
@@ -594,10 +619,13 @@
       <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -606,13 +634,13 @@
       <c r="P1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="14" t="s">
         <v>9</v>
       </c>
       <c r="T1" s="2" t="s">
@@ -620,7 +648,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="12">
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -650,18 +678,24 @@
       <c r="J2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="9"/>
+      <c r="K2" s="12">
+        <v>0</v>
+      </c>
       <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="O2" s="13">
+        <v>0</v>
+      </c>
       <c r="P2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="4">
-        <v>0</v>
-      </c>
-      <c r="R2" s="4">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4">
+      <c r="Q2" s="15">
+        <v>0</v>
+      </c>
+      <c r="R2" s="15">
+        <v>0</v>
+      </c>
+      <c r="S2" s="15">
         <v>0</v>
       </c>
       <c r="T2" s="4">
@@ -669,7 +703,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="12">
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -699,18 +733,24 @@
       <c r="J3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="9"/>
+      <c r="K3" s="12">
+        <v>0.25</v>
+      </c>
       <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="O3" s="13">
+        <v>0.25</v>
+      </c>
       <c r="P3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="4">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4">
+      <c r="Q3" s="15">
+        <v>0</v>
+      </c>
+      <c r="R3" s="15">
+        <v>0</v>
+      </c>
+      <c r="S3" s="15">
         <v>1</v>
       </c>
       <c r="T3" s="4">
@@ -718,7 +758,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="12">
         <v>0</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -748,18 +788,24 @@
       <c r="J4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="9"/>
+      <c r="K4" s="12">
+        <v>0.5</v>
+      </c>
       <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="O4" s="13">
+        <v>0.5</v>
+      </c>
       <c r="P4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="4">
-        <v>0</v>
-      </c>
-      <c r="R4" s="4">
-        <v>1</v>
-      </c>
-      <c r="S4" s="4">
+      <c r="Q4" s="15">
+        <v>0</v>
+      </c>
+      <c r="R4" s="15">
+        <v>1</v>
+      </c>
+      <c r="S4" s="15">
         <v>0</v>
       </c>
       <c r="T4" s="4">
@@ -767,7 +813,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="12">
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -797,18 +843,24 @@
       <c r="J5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="9"/>
+      <c r="K5" s="12">
+        <v>1</v>
+      </c>
       <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="O5" s="13">
+        <v>0.75</v>
+      </c>
       <c r="P5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4">
-        <v>1</v>
-      </c>
-      <c r="S5" s="4">
+      <c r="Q5" s="15">
+        <v>0</v>
+      </c>
+      <c r="R5" s="15">
+        <v>1</v>
+      </c>
+      <c r="S5" s="15">
         <v>1</v>
       </c>
       <c r="T5" s="4">
@@ -816,7 +868,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="13">
         <v>0.25</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -846,16 +898,23 @@
       <c r="J6" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="K6" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="O6" s="13">
+        <v>1</v>
+      </c>
       <c r="P6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="4">
-        <v>1</v>
-      </c>
-      <c r="R6" s="4">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4">
+      <c r="Q6" s="15">
+        <v>1</v>
+      </c>
+      <c r="R6" s="15">
+        <v>0</v>
+      </c>
+      <c r="S6" s="15">
         <v>0</v>
       </c>
       <c r="T6" s="4">
@@ -863,7 +922,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="13">
         <v>0.25</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -893,16 +952,23 @@
       <c r="J7" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="K7" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="O7" s="13">
+        <v>1.25</v>
+      </c>
       <c r="P7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="4">
-        <v>1</v>
-      </c>
-      <c r="R7" s="4">
-        <v>0</v>
-      </c>
-      <c r="S7" s="4">
+      <c r="Q7" s="15">
+        <v>1</v>
+      </c>
+      <c r="R7" s="15">
+        <v>0</v>
+      </c>
+      <c r="S7" s="15">
         <v>1</v>
       </c>
       <c r="T7" s="4">
@@ -910,7 +976,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="13">
         <v>0.25</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -940,24 +1006,31 @@
       <c r="J8" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="K8" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="O8" s="13">
+        <v>1.5</v>
+      </c>
       <c r="P8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q8" s="4">
-        <v>1</v>
-      </c>
-      <c r="R8" s="4">
-        <v>1</v>
-      </c>
-      <c r="S8" s="4">
-        <v>1</v>
+      <c r="Q8" s="15">
+        <v>1</v>
+      </c>
+      <c r="R8" s="15">
+        <v>1</v>
+      </c>
+      <c r="S8" s="15">
+        <v>0</v>
       </c>
       <c r="T8" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="13">
         <v>0.25</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -979,17 +1052,21 @@
         <v>1</v>
       </c>
       <c r="H9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="K9" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="12">
         <v>0.5</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -1019,8 +1096,11 @@
       <c r="J10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="9"/>
+      <c r="K10" s="12">
+        <v>0.5</v>
+      </c>
       <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
       <c r="O10" s="7" t="s">
         <v>24</v>
       </c>
@@ -1041,7 +1121,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="12">
         <v>0.5</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -1071,8 +1151,11 @@
       <c r="J11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K11" s="9"/>
+      <c r="K11" s="12">
+        <v>0.75</v>
+      </c>
       <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
       <c r="P11" s="4" t="s">
         <v>1</v>
       </c>
@@ -1090,7 +1173,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="12">
         <v>0.5</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -1115,13 +1198,16 @@
         <v>0</v>
       </c>
       <c r="I12" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="9"/>
+      <c r="K12" s="12">
+        <v>1</v>
+      </c>
       <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
       <c r="P12" s="4" t="s">
         <v>2</v>
       </c>
@@ -1139,7 +1225,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="12">
         <v>0.5</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -1164,13 +1250,16 @@
         <v>1</v>
       </c>
       <c r="I13" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="9"/>
+      <c r="K13" s="12">
+        <v>1.5</v>
+      </c>
       <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
       <c r="P13" s="4" t="s">
         <v>3</v>
       </c>
@@ -1188,7 +1277,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="13">
         <v>0.75</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1218,10 +1307,11 @@
       <c r="J14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="4">
-        <v>1</v>
-      </c>
-      <c r="L14" s="4" t="s">
+      <c r="K14" s="13"/>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="P14" s="4" t="s">
@@ -1241,7 +1331,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="13">
         <v>0.75</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1271,10 +1361,11 @@
       <c r="J15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="4">
-        <v>1</v>
-      </c>
-      <c r="L15" s="4" t="s">
+      <c r="K15" s="13"/>
+      <c r="L15" s="4">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4" t="s">
         <v>1</v>
       </c>
       <c r="P15" s="4" t="s">
@@ -1294,7 +1385,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="13">
         <v>0.75</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1324,10 +1415,11 @@
       <c r="J16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K16" s="4">
-        <v>1</v>
-      </c>
-      <c r="L16" s="4" t="s">
+      <c r="K16" s="13"/>
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4" t="s">
         <v>1</v>
       </c>
       <c r="P16" s="4" t="s">
@@ -1347,7 +1439,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="13">
         <v>0.75</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1377,10 +1469,11 @@
       <c r="J17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K17" s="4">
-        <v>1</v>
-      </c>
-      <c r="L17" s="4" t="s">
+      <c r="K17" s="13"/>
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4" t="s">
         <v>1</v>
       </c>
       <c r="P17" s="4" t="s">
@@ -1393,14 +1486,14 @@
         <v>1</v>
       </c>
       <c r="S17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="12">
         <v>1</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -1430,15 +1523,16 @@
       <c r="J18" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K18" s="9">
-        <v>1</v>
-      </c>
-      <c r="L18" s="9" t="s">
+      <c r="K18" s="12"/>
+      <c r="L18" s="9">
+        <v>1</v>
+      </c>
+      <c r="M18" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="12">
         <v>1</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -1468,15 +1562,16 @@
       <c r="J19" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K19" s="9">
-        <v>1</v>
-      </c>
-      <c r="L19" s="9" t="s">
+      <c r="K19" s="12"/>
+      <c r="L19" s="9">
+        <v>1</v>
+      </c>
+      <c r="M19" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="12">
         <v>1</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -1506,15 +1601,16 @@
       <c r="J20" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K20" s="9">
-        <v>1</v>
-      </c>
-      <c r="L20" s="9" t="s">
+      <c r="K20" s="12"/>
+      <c r="L20" s="9">
+        <v>1</v>
+      </c>
+      <c r="M20" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="12">
         <v>1</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1544,15 +1640,16 @@
       <c r="J21" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K21" s="9">
-        <v>1</v>
-      </c>
-      <c r="L21" s="9" t="s">
+      <c r="K21" s="12"/>
+      <c r="L21" s="9">
+        <v>1</v>
+      </c>
+      <c r="M21" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="13">
         <v>1.25</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1582,15 +1679,16 @@
       <c r="J22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K22" s="4">
-        <v>1</v>
-      </c>
-      <c r="L22" s="4" t="s">
+      <c r="K22" s="13"/>
+      <c r="L22" s="4">
+        <v>1</v>
+      </c>
+      <c r="M22" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="13">
         <v>1.25</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1620,15 +1718,16 @@
       <c r="J23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K23" s="4">
-        <v>1</v>
-      </c>
-      <c r="L23" s="4" t="s">
+      <c r="K23" s="13"/>
+      <c r="L23" s="4">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="13">
         <v>1.25</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -1658,15 +1757,16 @@
       <c r="J24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K24" s="4">
-        <v>1</v>
-      </c>
-      <c r="L24" s="4" t="s">
+      <c r="K24" s="13"/>
+      <c r="L24" s="4">
+        <v>1</v>
+      </c>
+      <c r="M24" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="13">
         <v>1.25</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1696,15 +1796,16 @@
       <c r="J25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K25" s="4">
-        <v>1</v>
-      </c>
-      <c r="L25" s="4" t="s">
+      <c r="K25" s="13"/>
+      <c r="L25" s="4">
+        <v>1</v>
+      </c>
+      <c r="M25" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="A26" s="12">
         <v>1.5</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -1734,15 +1835,16 @@
       <c r="J26" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K26" s="9">
-        <v>1</v>
-      </c>
-      <c r="L26" s="9" t="s">
+      <c r="K26" s="12"/>
+      <c r="L26" s="9">
+        <v>1</v>
+      </c>
+      <c r="M26" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="A27" s="12">
         <v>1.5</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -1772,15 +1874,16 @@
       <c r="J27" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K27" s="9">
-        <v>1</v>
-      </c>
-      <c r="L27" s="9" t="s">
+      <c r="K27" s="12"/>
+      <c r="L27" s="9">
+        <v>1</v>
+      </c>
+      <c r="M27" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="12">
         <v>1.5</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -1810,15 +1913,16 @@
       <c r="J28" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K28" s="9">
-        <v>1</v>
-      </c>
-      <c r="L28" s="9" t="s">
+      <c r="K28" s="12"/>
+      <c r="L28" s="9">
+        <v>1</v>
+      </c>
+      <c r="M28" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="12">
         <v>1.5</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -1848,10 +1952,11 @@
       <c r="J29" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K29" s="9">
-        <v>1</v>
-      </c>
-      <c r="L29" s="9" t="s">
+      <c r="K29" s="12"/>
+      <c r="L29" s="9">
+        <v>1</v>
+      </c>
+      <c r="M29" s="9" t="s">
         <v>4</v>
       </c>
     </row>
